--- a/resources/images,graphs,results/Excel graphs.xlsx
+++ b/resources/images,graphs,results/Excel graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_000\Documents\GitHub\term_project_360-420-w2019-section2-Tang-Dinh\resources\images,graphs,results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C543AA0-2CD5-4F23-8F7D-6AD886ED3499}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA24396-C5F9-45E9-9785-7259E1A78770}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{DB474995-E743-4FE5-AEBE-26530C6B6DDE}"/>
   </bookViews>

--- a/resources/images,graphs,results/Excel graphs.xlsx
+++ b/resources/images,graphs,results/Excel graphs.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_000\Documents\GitHub\term_project_360-420-w2019-section2-Tang-Dinh\resources\images,graphs,results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA24396-C5F9-45E9-9785-7259E1A78770}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B9C56D-0801-4565-8D2F-E16B0442B03B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{DB474995-E743-4FE5-AEBE-26530C6B6DDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="4" xr2:uid="{DB474995-E743-4FE5-AEBE-26530C6B6DDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Heat map" sheetId="6" r:id="rId1"/>
     <sheet name="Acc for different models" sheetId="7" r:id="rId2"/>
     <sheet name="normalize" sheetId="8" r:id="rId3"/>
     <sheet name="roc" sheetId="9" r:id="rId4"/>
-    <sheet name="Accuracy vs Iteration" sheetId="2" r:id="rId5"/>
-    <sheet name="Accuracy vs Alpha" sheetId="3" r:id="rId6"/>
-    <sheet name="All" sheetId="1" r:id="rId7"/>
+    <sheet name="AccDifferentNumofPredictors" sheetId="10" r:id="rId5"/>
+    <sheet name="Accuracy vs Iteration" sheetId="2" r:id="rId6"/>
+    <sheet name="Accuracy vs Alpha" sheetId="3" r:id="rId7"/>
+    <sheet name="All" sheetId="1" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Accuracy</t>
   </si>
@@ -97,6 +98,21 @@
   </si>
   <si>
     <t>FPR</t>
+  </si>
+  <si>
+    <t>Top3</t>
+  </si>
+  <si>
+    <t>Top5</t>
+  </si>
+  <si>
+    <t>Top7</t>
+  </si>
+  <si>
+    <t>Top10</t>
+  </si>
+  <si>
+    <t>All13</t>
   </si>
 </sst>
 </file>
@@ -1643,6 +1659,434 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy for different</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> numbers of predictors</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AccDifferentNumofPredictors!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>AccDifferentNumofPredictors!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.7320118343194799E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0943063773832999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.47738330046021E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.55907955292573E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.7793819855357902E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>AccDifferentNumofPredictors!$B$3:$F$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>7.7320118343194799E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0943063773832999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.47738330046021E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.55907955292573E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.7793819855357902E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>AccDifferentNumofPredictors!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Top3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Top5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>All13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AccDifferentNumofPredictors!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.94792307692307198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98420512820511896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99941025641025605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99507692307692097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.986307692307688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8915-4B93-B566-6BBA60773216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="420760920"/>
+        <c:axId val="420757968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="420760920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420757968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420757968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420760920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1724,6 +2168,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3285,6 +3769,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3398,6 +4385,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41BDE306-1DE4-4910-BFA9-E156EF03881A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7663,7 +8691,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7866,7 +8894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2F2187-7785-4B9C-A7E0-BC2FEFFC31BD}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -8018,6 +9046,79 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED26C8-DC36-4314-8376-D43696A130EF}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.94792307692307198</v>
+      </c>
+      <c r="C2">
+        <v>0.98420512820511896</v>
+      </c>
+      <c r="D2">
+        <v>0.99941025641025605</v>
+      </c>
+      <c r="E2">
+        <v>0.99507692307692097</v>
+      </c>
+      <c r="F2">
+        <v>0.986307692307688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>7.7320118343194799E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.0943063773832999E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.47738330046021E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.55907955292573E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.7793819855357902E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F83776-C7A5-4915-AB8E-8831DE93752A}">
   <dimension ref="A1:B50"/>
   <sheetViews>
@@ -8444,7 +9545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ED7B45-39D5-495D-8327-E4CD51B09FE5}">
   <dimension ref="A1:C100"/>
   <sheetViews>
@@ -9691,7 +10792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A7402A-45C5-4606-B950-CE89DC761A50}">
   <dimension ref="A1:C991"/>
   <sheetViews>
